--- a/data/respirometry/deep/final_rates/500_rates.xlsx
+++ b/data/respirometry/deep/final_rates/500_rates.xlsx
@@ -578,16 +578,16 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1405756097560976</v>
       </c>
       <c r="V2">
         <v>0.000247847478474785</v>
       </c>
       <c r="Z2">
-        <v>-0.1289068044024427</v>
+        <v>-0.117334580617608</v>
       </c>
       <c r="AB2">
-        <v>-520.1053696237509</v>
+        <v>-473.4144617474702</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="AD2">
-        <v>-520.1053696237509</v>
+        <v>-473.4144617474702</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.144009756097561</v>
       </c>
       <c r="V3">
         <v>0.000151796696538394</v>
       </c>
       <c r="Z3">
-        <v>-0.1857162619112173</v>
+        <v>-0.1731737476119215</v>
       </c>
       <c r="AB3">
-        <v>-1223.45391004108</v>
+        <v>-1140.826853027863</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="AD3">
-        <v>-1223.45391004108</v>
+        <v>-1140.826853027863</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1462634146341464</v>
       </c>
       <c r="V4">
         <v>0.0001561017395888245</v>
       </c>
       <c r="Z4">
-        <v>-0.1388714004080689</v>
+        <v>-0.1315190703102171</v>
       </c>
       <c r="AB4">
-        <v>-889.6210943827999</v>
+        <v>-842.5214905140799</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="AD4">
-        <v>-889.6210943827999</v>
+        <v>-842.5214905140799</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,16 +839,16 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1500390243902439</v>
       </c>
       <c r="V5">
         <v>0.0001601212440695836</v>
       </c>
       <c r="Z5">
-        <v>-0.1307426587782948</v>
+        <v>-0.1270169707930712</v>
       </c>
       <c r="AB5">
-        <v>-816.522876386585</v>
+        <v>-793.2549583356575</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="AD5">
-        <v>-816.522876386585</v>
+        <v>-793.2549583356575</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,16 +926,16 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1463707317073171</v>
       </c>
       <c r="V6">
         <v>0.0001600773150588649</v>
       </c>
       <c r="Z6">
-        <v>-0.1055462002214276</v>
+        <v>-0.1000315627773721</v>
       </c>
       <c r="AB6">
-        <v>-659.3451432054272</v>
+        <v>-624.8953060000269</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="AD6">
-        <v>-659.3451432054272</v>
+        <v>-624.8953060000269</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1465658536585366</v>
       </c>
       <c r="V7">
         <v>0.0002004041468986119</v>
       </c>
       <c r="Z7">
-        <v>-0.1742582797882486</v>
+        <v>-0.1653736955078527</v>
       </c>
       <c r="AB7">
-        <v>-869.5343009863419</v>
+        <v>-825.200965484603</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="AD7">
-        <v>-869.5343009863419</v>
+        <v>-825.200965484603</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,16 +1100,16 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1449658536585366</v>
       </c>
       <c r="V8">
         <v>0.0002479133719908628</v>
       </c>
       <c r="Z8">
-        <v>-0.1775210529285025</v>
+        <v>-0.1666309957274192</v>
       </c>
       <c r="AB8">
-        <v>-716.060821983597</v>
+        <v>-672.133957072556</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="AD8">
-        <v>-716.060821983597</v>
+        <v>-672.133957072556</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-0.001356467980046231</v>
+        <v>-0.001356116654488074</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -1278,16 +1278,16 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1405756097560976</v>
       </c>
       <c r="V10">
         <v>0.000247847478474785</v>
       </c>
       <c r="Z10">
-        <v>0.1539054378109596</v>
+        <v>0.1400890362927661</v>
       </c>
       <c r="AB10">
-        <v>620.9683421355336</v>
+        <v>565.2227618164701</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AD10">
-        <v>620.9683421355336</v>
+        <v>565.2227618164701</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.144009756097561</v>
       </c>
       <c r="V11">
         <v>0.000151796696538394</v>
       </c>
       <c r="Z11">
-        <v>0.1247724063869005</v>
+        <v>0.1163457900251444</v>
       </c>
       <c r="AB11">
-        <v>821.9704989122856</v>
+        <v>766.4579841216574</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="AD11">
-        <v>821.9704989122856</v>
+        <v>766.4579841216574</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1452,16 +1452,16 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1462634146341464</v>
       </c>
       <c r="V12">
         <v>0.0001561017395888245</v>
       </c>
       <c r="Z12">
-        <v>0.05900396023362704</v>
+        <v>0.05588008741716961</v>
       </c>
       <c r="AB12">
-        <v>377.9840019018674</v>
+        <v>357.9722273714504</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="AD12">
-        <v>377.9840019018674</v>
+        <v>357.9722273714504</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1539,16 +1539,16 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1500390243902439</v>
       </c>
       <c r="V13">
         <v>0.0001601212440695836</v>
       </c>
       <c r="Z13">
-        <v>0.1228094699033469</v>
+        <v>0.119309848809772</v>
       </c>
       <c r="AB13">
-        <v>766.9779898161283</v>
+        <v>745.1219199741149</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="AD13">
-        <v>766.9779898161283</v>
+        <v>745.1219199741149</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1463707317073171</v>
       </c>
       <c r="V14">
         <v>0.0001600773150588649</v>
       </c>
       <c r="Z14">
-        <v>0.04879773530428823</v>
+        <v>0.04624812368653618</v>
       </c>
       <c r="AB14">
-        <v>304.8385418405096</v>
+        <v>288.9111656422364</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="AD14">
-        <v>304.8385418405096</v>
+        <v>288.9111656422364</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1713,16 +1713,16 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1465658536585366</v>
       </c>
       <c r="V15">
         <v>0.0002004041468986119</v>
       </c>
       <c r="Z15">
-        <v>0.1700196152533204</v>
+        <v>0.161351139913875</v>
       </c>
       <c r="AB15">
-        <v>848.3837180242406</v>
+        <v>805.1287481366617</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="AD15">
-        <v>848.3837180242406</v>
+        <v>805.1287481366617</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -1800,16 +1800,16 @@
         </is>
       </c>
       <c r="T16">
-        <v>0.15444</v>
+        <v>0.1449658536585366</v>
       </c>
       <c r="V16">
         <v>0.0002479133719908628</v>
       </c>
       <c r="Z16">
-        <v>0.2798498621503188</v>
+        <v>0.2626824278868477</v>
       </c>
       <c r="AB16">
-        <v>1128.821168067663</v>
+        <v>1059.573454135944</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="AD16">
-        <v>1128.821168067663</v>
+        <v>1059.573454135944</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
@@ -1887,13 +1887,13 @@
         </is>
       </c>
       <c r="T17">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0.005651044189637845</v>
+        <v>0.005649580567729108</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
